--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1322.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1322.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.043827660592609</v>
+        <v>0.9527859091758728</v>
       </c>
       <c r="B1">
-        <v>2.510801785696722</v>
+        <v>1.696652889251709</v>
       </c>
       <c r="C1">
-        <v>5.04427395201844</v>
+        <v>5.610214710235596</v>
       </c>
       <c r="D1">
-        <v>2.268193800643481</v>
+        <v>3.572016477584839</v>
       </c>
       <c r="E1">
-        <v>1.237255722562983</v>
+        <v>1.120502114295959</v>
       </c>
     </row>
   </sheetData>
